--- a/models/evaluation/output/codegpt_finetuned-test-humaneval.xlsx
+++ b/models/evaluation/output/codegpt_finetuned-test-humaneval.xlsx
@@ -542,7 +542,8 @@
           <t>functions
 complete
 parameter(s)
-argument(s)body</t>
+argument(s)
+body</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -551,7 +552,8 @@
 ++
 :
 !!
-list comprehension</t>
+list comprehension
+range</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -585,7 +587,8 @@
         <is>
           <t>case expressions
 complete
-parameter(s), argument(s)</t>
+parameter(s)
+argument(s)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
